--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.014549333333334</v>
+        <v>2.299608333333333</v>
       </c>
       <c r="H2">
-        <v>12.043648</v>
+        <v>6.898825</v>
       </c>
       <c r="I2">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="J2">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.563084333333332</v>
+        <v>7.085731</v>
       </c>
       <c r="N2">
-        <v>22.689253</v>
+        <v>21.257193</v>
       </c>
       <c r="O2">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="P2">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="Q2">
-        <v>30.36237516832711</v>
+        <v>16.29440605535833</v>
       </c>
       <c r="R2">
-        <v>273.261376514944</v>
+        <v>146.649654498225</v>
       </c>
       <c r="S2">
-        <v>0.001023655482707103</v>
+        <v>0.0006989809710867308</v>
       </c>
       <c r="T2">
-        <v>0.001023655482707103</v>
+        <v>0.0006989809710867308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.014549333333334</v>
+        <v>2.299608333333333</v>
       </c>
       <c r="H3">
-        <v>12.043648</v>
+        <v>6.898825</v>
       </c>
       <c r="I3">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="J3">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.960578</v>
       </c>
       <c r="O3">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="P3">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="Q3">
-        <v>37.41637325650489</v>
+        <v>21.43279272453889</v>
       </c>
       <c r="R3">
-        <v>336.747359308544</v>
+        <v>192.89513452085</v>
       </c>
       <c r="S3">
-        <v>0.001261478241234279</v>
+        <v>0.0009194022918541633</v>
       </c>
       <c r="T3">
-        <v>0.00126147824123428</v>
+        <v>0.0009194022918541634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.014549333333334</v>
+        <v>2.299608333333333</v>
       </c>
       <c r="H4">
-        <v>12.043648</v>
+        <v>6.898825</v>
       </c>
       <c r="I4">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="J4">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.689863</v>
+        <v>14.22029466666667</v>
       </c>
       <c r="N4">
-        <v>5.069589000000001</v>
+        <v>42.660884</v>
       </c>
       <c r="O4">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="P4">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="Q4">
-        <v>6.784038380074668</v>
+        <v>32.70110811792222</v>
       </c>
       <c r="R4">
-        <v>61.05634542067201</v>
+        <v>294.3099730613</v>
       </c>
       <c r="S4">
-        <v>0.0002287211736288373</v>
+        <v>0.00140277910285419</v>
       </c>
       <c r="T4">
-        <v>0.0002287211736288374</v>
+        <v>0.00140277910285419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.014549333333334</v>
+        <v>2.299608333333333</v>
       </c>
       <c r="H5">
-        <v>12.043648</v>
+        <v>6.898825</v>
       </c>
       <c r="I5">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="J5">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.900469333333334</v>
+        <v>1.993361666666667</v>
       </c>
       <c r="N5">
-        <v>5.701408000000001</v>
+        <v>5.980085</v>
       </c>
       <c r="O5">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="P5">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="Q5">
-        <v>7.62952789515378</v>
+        <v>4.58395110001389</v>
       </c>
       <c r="R5">
-        <v>68.66575105638401</v>
+        <v>41.255559900125</v>
       </c>
       <c r="S5">
-        <v>0.0002572265185790884</v>
+        <v>0.000196637703787193</v>
       </c>
       <c r="T5">
-        <v>0.0002572265185790885</v>
+        <v>0.000196637703787193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.014549333333334</v>
+        <v>2.299608333333333</v>
       </c>
       <c r="H6">
-        <v>12.043648</v>
+        <v>6.898825</v>
       </c>
       <c r="I6">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="J6">
-        <v>0.003495498834839769</v>
+        <v>0.004282915438164647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.352220666666667</v>
+        <v>10.79731966666667</v>
       </c>
       <c r="N6">
-        <v>16.056662</v>
+        <v>32.391959</v>
       </c>
       <c r="O6">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="P6">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="Q6">
-        <v>21.48675390921956</v>
+        <v>24.82960628313056</v>
       </c>
       <c r="R6">
-        <v>193.380785182976</v>
+        <v>223.466456548175</v>
       </c>
       <c r="S6">
-        <v>0.0007244174186904609</v>
+        <v>0.00106511536858237</v>
       </c>
       <c r="T6">
-        <v>0.000724417418690461</v>
+        <v>0.00106511536858237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.590095</v>
       </c>
       <c r="I7">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="J7">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.563084333333332</v>
+        <v>7.085731</v>
       </c>
       <c r="N7">
-        <v>22.689253</v>
+        <v>21.257193</v>
       </c>
       <c r="O7">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="P7">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="Q7">
-        <v>46.86615208322611</v>
+        <v>43.90813747814834</v>
       </c>
       <c r="R7">
-        <v>421.795368749035</v>
+        <v>395.173237303335</v>
       </c>
       <c r="S7">
-        <v>0.0015800738007949</v>
+        <v>0.001883526927512233</v>
       </c>
       <c r="T7">
-        <v>0.0015800738007949</v>
+        <v>0.001883526927512233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.590095</v>
       </c>
       <c r="I8">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="J8">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.960578</v>
       </c>
       <c r="O8">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="P8">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="Q8">
         <v>57.75442236387889</v>
@@ -948,10 +948,10 @@
         <v>519.78980127491</v>
       </c>
       <c r="S8">
-        <v>0.001947167531380705</v>
+        <v>0.002477490869646153</v>
       </c>
       <c r="T8">
-        <v>0.001947167531380706</v>
+        <v>0.002477490869646153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.590095</v>
       </c>
       <c r="I9">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="J9">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.689863</v>
+        <v>14.22029466666667</v>
       </c>
       <c r="N9">
-        <v>5.069589000000001</v>
+        <v>42.660884</v>
       </c>
       <c r="O9">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="P9">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="Q9">
-        <v>10.47157123566167</v>
+        <v>88.11887626044222</v>
       </c>
       <c r="R9">
-        <v>94.24414112095502</v>
+        <v>793.06988634398</v>
       </c>
       <c r="S9">
-        <v>0.0003530448869206058</v>
+        <v>0.003780034540095475</v>
       </c>
       <c r="T9">
-        <v>0.000353044886920606</v>
+        <v>0.003780034540095475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.590095</v>
       </c>
       <c r="I10">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="J10">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.900469333333334</v>
+        <v>1.993361666666667</v>
       </c>
       <c r="N10">
-        <v>5.701408000000001</v>
+        <v>5.980085</v>
       </c>
       <c r="O10">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="P10">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="Q10">
-        <v>11.77663515041778</v>
+        <v>12.35226091756389</v>
       </c>
       <c r="R10">
-        <v>105.98971635376</v>
+        <v>111.170348258075</v>
       </c>
       <c r="S10">
-        <v>0.0003970446011793535</v>
+        <v>0.0005298748111433147</v>
       </c>
       <c r="T10">
-        <v>0.0003970446011793537</v>
+        <v>0.0005298748111433147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.590095</v>
       </c>
       <c r="I11">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="J11">
-        <v>0.005395512672909455</v>
+        <v>0.01154106748213608</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.352220666666667</v>
+        <v>10.79731966666667</v>
       </c>
       <c r="N11">
-        <v>16.056662</v>
+        <v>32.391959</v>
       </c>
       <c r="O11">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="P11">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="Q11">
-        <v>33.16609688476556</v>
+        <v>66.90773278290057</v>
       </c>
       <c r="R11">
-        <v>298.49487196289</v>
+        <v>602.1695950461051</v>
       </c>
       <c r="S11">
-        <v>0.00111818185263389</v>
+        <v>0.0028701403337389</v>
       </c>
       <c r="T11">
-        <v>0.00111818185263389</v>
+        <v>0.0028701403337389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>690.6165566666667</v>
+        <v>265.3156126666667</v>
       </c>
       <c r="H12">
-        <v>2071.84967</v>
+        <v>795.9468380000001</v>
       </c>
       <c r="I12">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563949</v>
       </c>
       <c r="J12">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.563084333333332</v>
+        <v>7.085731</v>
       </c>
       <c r="N12">
-        <v>22.689253</v>
+        <v>21.257193</v>
       </c>
       <c r="O12">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="P12">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="Q12">
-        <v>5223.191260066279</v>
+        <v>1879.955061456193</v>
       </c>
       <c r="R12">
-        <v>47008.72134059651</v>
+        <v>16919.59555310574</v>
       </c>
       <c r="S12">
-        <v>0.1760978296642679</v>
+        <v>0.0806444131803101</v>
       </c>
       <c r="T12">
-        <v>0.176097829664268</v>
+        <v>0.08064441318031008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>690.6165566666667</v>
+        <v>265.3156126666667</v>
       </c>
       <c r="H13">
-        <v>2071.84967</v>
+        <v>795.9468380000001</v>
       </c>
       <c r="I13">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563949</v>
       </c>
       <c r="J13">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.960578</v>
       </c>
       <c r="O13">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="P13">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="Q13">
-        <v>6436.679366923251</v>
+        <v>2472.792627528041</v>
       </c>
       <c r="R13">
-        <v>57930.11430230926</v>
+        <v>22255.13364775237</v>
       </c>
       <c r="S13">
-        <v>0.2170101017410524</v>
+        <v>0.1060753602318184</v>
       </c>
       <c r="T13">
-        <v>0.2170101017410524</v>
+        <v>0.1060753602318184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>690.6165566666667</v>
+        <v>265.3156126666667</v>
       </c>
       <c r="H14">
-        <v>2071.84967</v>
+        <v>795.9468380000001</v>
       </c>
       <c r="I14">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563949</v>
       </c>
       <c r="J14">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.689863</v>
+        <v>14.22029466666667</v>
       </c>
       <c r="N14">
-        <v>5.069589000000001</v>
+        <v>42.660884</v>
       </c>
       <c r="O14">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="P14">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="Q14">
-        <v>1167.047366298403</v>
+        <v>3772.8661917872</v>
       </c>
       <c r="R14">
-        <v>10503.42629668563</v>
+        <v>33955.79572608479</v>
       </c>
       <c r="S14">
-        <v>0.03934654085746439</v>
+        <v>0.161844602715574</v>
       </c>
       <c r="T14">
-        <v>0.0393465408574644</v>
+        <v>0.1618446027155739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>690.6165566666667</v>
+        <v>265.3156126666667</v>
       </c>
       <c r="H15">
-        <v>2071.84967</v>
+        <v>795.9468380000001</v>
       </c>
       <c r="I15">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563949</v>
       </c>
       <c r="J15">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.900469333333334</v>
+        <v>1.993361666666667</v>
       </c>
       <c r="N15">
-        <v>5.701408000000001</v>
+        <v>5.980085</v>
       </c>
       <c r="O15">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="P15">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="Q15">
-        <v>1312.495587037263</v>
+        <v>528.8699718579145</v>
       </c>
       <c r="R15">
-        <v>11812.46028333536</v>
+        <v>4759.829746721231</v>
       </c>
       <c r="S15">
-        <v>0.04425027015347287</v>
+        <v>0.02268692981210524</v>
       </c>
       <c r="T15">
-        <v>0.04425027015347288</v>
+        <v>0.02268692981210524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>690.6165566666667</v>
+        <v>265.3156126666667</v>
       </c>
       <c r="H16">
-        <v>2071.84967</v>
+        <v>795.9468380000001</v>
       </c>
       <c r="I16">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563949</v>
       </c>
       <c r="J16">
-        <v>0.6013251223755592</v>
+        <v>0.4941382047563948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.352220666666667</v>
+        <v>10.79731966666667</v>
       </c>
       <c r="N16">
-        <v>16.056662</v>
+        <v>32.391959</v>
       </c>
       <c r="O16">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="P16">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="Q16">
-        <v>3696.332207333505</v>
+        <v>2864.697482519516</v>
       </c>
       <c r="R16">
-        <v>33266.98986600154</v>
+        <v>25782.27734267564</v>
       </c>
       <c r="S16">
-        <v>0.1246203799593016</v>
+        <v>0.1228868988165871</v>
       </c>
       <c r="T16">
-        <v>0.1246203799593016</v>
+        <v>0.1228868988165871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.13398733333333</v>
+        <v>16.35749033333333</v>
       </c>
       <c r="H17">
-        <v>63.401962</v>
+        <v>49.072471</v>
       </c>
       <c r="I17">
-        <v>0.0184015245461803</v>
+        <v>0.03046507827561751</v>
       </c>
       <c r="J17">
-        <v>0.0184015245461803</v>
+        <v>0.0304650782756175</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.563084333333332</v>
+        <v>7.085731</v>
       </c>
       <c r="N17">
-        <v>22.689253</v>
+        <v>21.257193</v>
       </c>
       <c r="O17">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="P17">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="Q17">
-        <v>159.8381285015984</v>
+        <v>115.9047763371003</v>
       </c>
       <c r="R17">
-        <v>1438.543156514386</v>
+        <v>1043.142987033903</v>
       </c>
       <c r="S17">
-        <v>0.005388879350815248</v>
+        <v>0.004971966013517582</v>
       </c>
       <c r="T17">
-        <v>0.00538887935081525</v>
+        <v>0.004971966013517582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.13398733333333</v>
+        <v>16.35749033333333</v>
       </c>
       <c r="H18">
-        <v>63.401962</v>
+        <v>49.072471</v>
       </c>
       <c r="I18">
-        <v>0.0184015245461803</v>
+        <v>0.03046507827561751</v>
       </c>
       <c r="J18">
-        <v>0.0184015245461803</v>
+        <v>0.0304650782756175</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.960578</v>
       </c>
       <c r="O18">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="P18">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="Q18">
-        <v>196.9728337615595</v>
+        <v>152.4549614498042</v>
       </c>
       <c r="R18">
-        <v>1772.755503854036</v>
+        <v>1372.094653048238</v>
       </c>
       <c r="S18">
-        <v>0.006640861266832325</v>
+        <v>0.006539858933129477</v>
       </c>
       <c r="T18">
-        <v>0.006640861266832327</v>
+        <v>0.006539858933129477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.13398733333333</v>
+        <v>16.35749033333333</v>
       </c>
       <c r="H19">
-        <v>63.401962</v>
+        <v>49.072471</v>
       </c>
       <c r="I19">
-        <v>0.0184015245461803</v>
+        <v>0.03046507827561751</v>
       </c>
       <c r="J19">
-        <v>0.0184015245461803</v>
+        <v>0.0304650782756175</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.689863</v>
+        <v>14.22029466666667</v>
       </c>
       <c r="N19">
-        <v>5.069589000000001</v>
+        <v>42.660884</v>
       </c>
       <c r="O19">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="P19">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="Q19">
-        <v>35.71354323706867</v>
+        <v>232.6083325471515</v>
       </c>
       <c r="R19">
-        <v>321.421889133618</v>
+        <v>2093.474992924364</v>
       </c>
       <c r="S19">
-        <v>0.001204067999912563</v>
+        <v>0.009978197279133514</v>
       </c>
       <c r="T19">
-        <v>0.001204067999912564</v>
+        <v>0.009978197279133513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.13398733333333</v>
+        <v>16.35749033333333</v>
       </c>
       <c r="H20">
-        <v>63.401962</v>
+        <v>49.072471</v>
       </c>
       <c r="I20">
-        <v>0.0184015245461803</v>
+        <v>0.03046507827561751</v>
       </c>
       <c r="J20">
-        <v>0.0184015245461803</v>
+        <v>0.0304650782756175</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.900469333333334</v>
+        <v>1.993361666666667</v>
       </c>
       <c r="N20">
-        <v>5.701408000000001</v>
+        <v>5.980085</v>
       </c>
       <c r="O20">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="P20">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="Q20">
-        <v>40.16449481805512</v>
+        <v>32.60639419333722</v>
       </c>
       <c r="R20">
-        <v>361.4804533624961</v>
+        <v>293.457547740035</v>
       </c>
       <c r="S20">
-        <v>0.001354130073906482</v>
+        <v>0.001398716160593089</v>
       </c>
       <c r="T20">
-        <v>0.001354130073906483</v>
+        <v>0.001398716160593089</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.13398733333333</v>
+        <v>16.35749033333333</v>
       </c>
       <c r="H21">
-        <v>63.401962</v>
+        <v>49.072471</v>
       </c>
       <c r="I21">
-        <v>0.0184015245461803</v>
+        <v>0.03046507827561751</v>
       </c>
       <c r="J21">
-        <v>0.0184015245461803</v>
+        <v>0.0304650782756175</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.352220666666667</v>
+        <v>10.79731966666667</v>
       </c>
       <c r="N21">
-        <v>16.056662</v>
+        <v>32.391959</v>
       </c>
       <c r="O21">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="P21">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="Q21">
-        <v>113.1137637745382</v>
+        <v>176.6170520734099</v>
       </c>
       <c r="R21">
-        <v>1018.023873970844</v>
+        <v>1589.553468660689</v>
       </c>
       <c r="S21">
-        <v>0.003813585854713678</v>
+        <v>0.007576339889243842</v>
       </c>
       <c r="T21">
-        <v>0.003813585854713679</v>
+        <v>0.007576339889243841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>426.5293173333334</v>
+        <v>246.7565153333333</v>
       </c>
       <c r="H22">
-        <v>1279.587952</v>
+        <v>740.269546</v>
       </c>
       <c r="I22">
-        <v>0.3713823415705113</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="J22">
-        <v>0.3713823415705114</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.563084333333332</v>
+        <v>7.085731</v>
       </c>
       <c r="N22">
-        <v>22.689253</v>
+        <v>21.257193</v>
       </c>
       <c r="O22">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="P22">
-        <v>0.2928496134812834</v>
+        <v>0.1632021414334214</v>
       </c>
       <c r="Q22">
-        <v>3225.877197631095</v>
+        <v>1748.450290149375</v>
       </c>
       <c r="R22">
-        <v>29032.89477867985</v>
+        <v>15736.05261134438</v>
       </c>
       <c r="S22">
-        <v>0.1087591751826982</v>
+        <v>0.07500325434099478</v>
       </c>
       <c r="T22">
-        <v>0.1087591751826982</v>
+        <v>0.07500325434099478</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>426.5293173333334</v>
+        <v>246.7565153333333</v>
       </c>
       <c r="H23">
-        <v>1279.587952</v>
+        <v>740.269546</v>
       </c>
       <c r="I23">
-        <v>0.3713823415705113</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="J23">
-        <v>0.3713823415705114</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.960578</v>
       </c>
       <c r="O23">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="P23">
-        <v>0.3608864716706749</v>
+        <v>0.2146673930709577</v>
       </c>
       <c r="Q23">
-        <v>3975.335415528473</v>
+        <v>2299.818264661954</v>
       </c>
       <c r="R23">
-        <v>35778.01873975625</v>
+        <v>20698.36438195759</v>
       </c>
       <c r="S23">
-        <v>0.1340268628901752</v>
+        <v>0.09865528074450954</v>
       </c>
       <c r="T23">
-        <v>0.1340268628901753</v>
+        <v>0.09865528074450954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>426.5293173333334</v>
+        <v>246.7565153333333</v>
       </c>
       <c r="H24">
-        <v>1279.587952</v>
+        <v>740.269546</v>
       </c>
       <c r="I24">
-        <v>0.3713823415705113</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="J24">
-        <v>0.3713823415705114</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.689863</v>
+        <v>14.22029466666667</v>
       </c>
       <c r="N24">
-        <v>5.069589000000001</v>
+        <v>42.660884</v>
       </c>
       <c r="O24">
-        <v>0.06543305674977339</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="P24">
-        <v>0.0654330567497734</v>
+        <v>0.3275290215525062</v>
       </c>
       <c r="Q24">
-        <v>720.7761117768588</v>
+        <v>3508.950358959852</v>
       </c>
       <c r="R24">
-        <v>6486.985005991729</v>
+        <v>31580.55323063866</v>
       </c>
       <c r="S24">
-        <v>0.02430068183184699</v>
+        <v>0.1505234079148491</v>
       </c>
       <c r="T24">
-        <v>0.024300681831847</v>
+        <v>0.1505234079148491</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>426.5293173333334</v>
+        <v>246.7565153333333</v>
       </c>
       <c r="H25">
-        <v>1279.587952</v>
+        <v>740.269546</v>
       </c>
       <c r="I25">
-        <v>0.3713823415705113</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="J25">
-        <v>0.3713823415705114</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.900469333333334</v>
+        <v>1.993361666666667</v>
       </c>
       <c r="N25">
-        <v>5.701408000000001</v>
+        <v>5.980085</v>
       </c>
       <c r="O25">
-        <v>0.07358792857125342</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="P25">
-        <v>0.07358792857125343</v>
+        <v>0.04591211445245296</v>
       </c>
       <c r="Q25">
-        <v>810.605887359602</v>
+        <v>491.8749786657123</v>
       </c>
       <c r="R25">
-        <v>7295.452986236417</v>
+        <v>4426.87480799141</v>
       </c>
       <c r="S25">
-        <v>0.02732925722411562</v>
+        <v>0.02109995596482413</v>
       </c>
       <c r="T25">
-        <v>0.02732925722411563</v>
+        <v>0.02109995596482413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>426.5293173333334</v>
+        <v>246.7565153333333</v>
       </c>
       <c r="H26">
-        <v>1279.587952</v>
+        <v>740.269546</v>
       </c>
       <c r="I26">
-        <v>0.3713823415705113</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="J26">
-        <v>0.3713823415705114</v>
+        <v>0.459572734047687</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.352220666666667</v>
+        <v>10.79731966666667</v>
       </c>
       <c r="N26">
-        <v>16.056662</v>
+        <v>32.391959</v>
       </c>
       <c r="O26">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="P26">
-        <v>0.2072429295270149</v>
+        <v>0.2486893294906617</v>
       </c>
       <c r="Q26">
-        <v>2282.879027170692</v>
+        <v>2664.308975886735</v>
       </c>
       <c r="R26">
-        <v>20545.91124453623</v>
+        <v>23978.78078298062</v>
       </c>
       <c r="S26">
-        <v>0.07696636444167525</v>
+        <v>0.1142908350825095</v>
       </c>
       <c r="T26">
-        <v>0.07696636444167526</v>
+        <v>0.1142908350825095</v>
       </c>
     </row>
   </sheetData>
